--- a/test1.xlsx
+++ b/test1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
           <t>露肩短袖t恤女设计感小众2022年夏季新款修身显瘦别致短款上衣ins</t>
         </is>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,7 @@
           <t>网红露肩钻链T恤女初秋2021新款设计感小众修身别致打底衫ins上衣</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +496,9 @@
           <t>连衣裙2022夏季新款女装收腰显瘦气质修身黑色网纱拼接长裙子潮流</t>
         </is>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +519,9 @@
           <t>春夏新款设计感小众ins潮</t>
         </is>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +542,9 @@
           <t>设计感不规则露肩短袖t恤女宽松纯白色半袖黑色斜肩半袖上衣夏天</t>
         </is>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +565,9 @@
           <t>夏季多巴胺穿搭盐系轻熟性感纯欲风甜辣妹上衣裙子时尚两件套装女</t>
         </is>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +588,9 @@
           <t>2021早秋新款一字肩长袖显瘦上衣女设计感修身t恤挂脖百搭体恤潮</t>
         </is>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +611,9 @@
           <t>BettyChow 秋装 露肩针织衫上衣长袖套头毛衣显瘦百搭薄款</t>
         </is>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +634,53 @@
           <t>蔓柔~镂空纯欲风针织裙女早春新款辣妹露肩短上衣包臀裙两件套装</t>
         </is>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>671235277825</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/fa6ad54c5ee5d95be336d10c7da7e746_5c93fc16049c56ef3a4d337adee0d3a9.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>冷肩</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TOUCH MISS高端时髦2022夏新款宽松韩版上衣拼接假两件条纹T恤女</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>643445513941</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/cbe56acbd393902a67c841d769045f37_0371e7094828fcbd90d64687e250ff35.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>冷肩</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021夏季新款时尚宽松露肩短袖T恤女设计感小众百搭洋气系带上衣</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\py\work_auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC72BAE-9ECA-414F-937F-595E663FA7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>冷肩</t>
+  </si>
+  <si>
+    <t>露肩短袖t恤女设计感小众2022年夏季新款修身显瘦别致短款上衣ins</t>
+  </si>
+  <si>
+    <t>网红露肩钻链T恤女初秋2021新款设计感小众修身别致打底衫ins上衣</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/a6c3db9b0cb74f2c214d7dc9c5b9e2aa_ad1591b7098425e38ec9a498ea9b89b9.jpg</t>
+  </si>
+  <si>
+    <t>连衣裙2022夏季新款女装收腰显瘦气质修身黑色网纱拼接长裙子潮流</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/753de39226edf2f690ea8d5aa13ad6f4_03d2f154d8d2af45d0e3edc257101e2f.jpg</t>
+  </si>
+  <si>
+    <t>春夏新款设计感小众ins潮</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/089beb7124da75be9ea45b1e28b5be83_67dbdfa5a344d253fb5cff7ce3954a54.jpg</t>
+  </si>
+  <si>
+    <t>设计感不规则露肩短袖t恤女宽松纯白色半袖黑色斜肩半袖上衣夏天</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/34e0b0f8f659c93ff5aa67bce241a7f7_f635c78ddc9ae73ded3581698988b41a.jpg</t>
+  </si>
+  <si>
+    <t>夏季多巴胺穿搭盐系轻熟性感纯欲风甜辣妹上衣裙子时尚两件套装女</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/dcc7bba5105b643f2afebca3ca156393_44092866657d4da024ce61b93f619b75.jpg</t>
+  </si>
+  <si>
+    <t>2021早秋新款一字肩长袖显瘦上衣女设计感修身t恤挂脖百搭体恤潮</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao_dataline/dfbd16e6cd1f98c7d81af82ea7b25f11.jpg</t>
+  </si>
+  <si>
+    <t>BettyChow 秋装 露肩针织衫上衣长袖套头毛衣显瘦百搭薄款</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/8ba9f0a3ddca937c6cab7a324fa751d1_b53add19d12e4cb02b2d7192f84abf75.jpg</t>
+  </si>
+  <si>
+    <t>蔓柔~镂空纯欲风针织裙女早春新款辣妹露肩短上衣包臀裙两件套装</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/fa6ad54c5ee5d95be336d10c7da7e746_5c93fc16049c56ef3a4d337adee0d3a9.jpg</t>
+  </si>
+  <si>
+    <t>TOUCH MISS高端时髦2022夏新款宽松韩版上衣拼接假两件条纹T恤女</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/cbe56acbd393902a67c841d769045f37_0371e7094828fcbd90d64687e250ff35.jpg</t>
+  </si>
+  <si>
+    <t>2021夏季新款时尚宽松露肩短袖T恤女设计感小众百搭洋气系带上衣</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/00ff249e2a8b54ca7f8f725bdcd901dc_48a955afc2e5d501ea6520a10857e26a.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/df281590248035c170dfbd8f3613af0b_9246c558065d0f796b31f181c3c03579.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +144,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,269 +474,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="64.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>671393858663</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/df281590248035c170dfbd8f3613af0b_9246c558065d0f796b31f181c3c03579.jpg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>露肩短袖t恤女设计感小众2022年夏季新款修身显瘦别致短款上衣ins</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>654679657071</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/00ff249e2a8b54ca7f8f725bdcd901dc_48a955afc2e5d501ea6520a10857e26a.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>网红露肩钻链T恤女初秋2021新款设计感小众修身别致打底衫ins上衣</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>670945967101</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/a6c3db9b0cb74f2c214d7dc9c5b9e2aa_ad1591b7098425e38ec9a498ea9b89b9.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>连衣裙2022夏季新款女装收腰显瘦气质修身黑色网纱拼接长裙子潮流</t>
-        </is>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>703619127762</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/753de39226edf2f690ea8d5aa13ad6f4_03d2f154d8d2af45d0e3edc257101e2f.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>春夏新款设计感小众ins潮</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>670945967101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>729429043905</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/089beb7124da75be9ea45b1e28b5be83_67dbdfa5a344d253fb5cff7ce3954a54.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>设计感不规则露肩短袖t恤女宽松纯白色半袖黑色斜肩半袖上衣夏天</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>703619127762</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>725776228480</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/34e0b0f8f659c93ff5aa67bce241a7f7_f635c78ddc9ae73ded3581698988b41a.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>夏季多巴胺穿搭盐系轻熟性感纯欲风甜辣妹上衣裙子时尚两件套装女</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>729429043905</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>652268722989</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/dcc7bba5105b643f2afebca3ca156393_44092866657d4da024ce61b93f619b75.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021早秋新款一字肩长袖显瘦上衣女设计感修身t恤挂脖百搭体恤潮</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>725776228480</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>652268722989</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>574950231786</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao_dataline/dfbd16e6cd1f98c7d81af82ea7b25f11.jpg</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BettyChow 秋装 露肩针织衫上衣长袖套头毛衣显瘦百搭薄款</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>668191348410</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/8ba9f0a3ddca937c6cab7a324fa751d1_b53add19d12e4cb02b2d7192f84abf75.jpg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>蔓柔~镂空纯欲风针织裙女早春新款辣妹露肩短上衣包臀裙两件套装</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>671235277825</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/fa6ad54c5ee5d95be336d10c7da7e746_5c93fc16049c56ef3a4d337adee0d3a9.jpg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TOUCH MISS高端时髦2022夏新款宽松韩版上衣拼接假两件条纹T恤女</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>643445513941</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/cbe56acbd393902a67c841d769045f37_0371e7094828fcbd90d64687e250ff35.jpg</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>冷肩</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2021夏季新款时尚宽松露肩短袖T恤女设计感小众百搭洋气系带上衣</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD776F30-9E18-483E-98A3-45B5684302D2}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{3544C30E-1145-4867-83B2-7D1E801C584F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>